--- a/inst/extdata/dictionary_dictionary.xlsx
+++ b/inst/extdata/dictionary_dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spina\Desktop\covidmonitor\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aljc201/Desktop/covidmonitor/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B068FBC1-583D-FE4F-BD70-F8389C389F09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="linelist_dictionary" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="122">
   <si>
     <t>Sheet</t>
   </si>
@@ -244,9 +245,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>For recoding [insert variable]</t>
-  </si>
-  <si>
     <t>capital</t>
   </si>
   <si>
@@ -277,9 +275,6 @@
     <t>labresult</t>
   </si>
   <si>
-    <t>[insert explanation]</t>
-  </si>
-  <si>
     <t>classification</t>
   </si>
   <si>
@@ -359,12 +354,51 @@
   </si>
   <si>
     <t>Not used. Could be adapted to recode from excel datasets to new online format</t>
+  </si>
+  <si>
+    <t>For recoding patinfo_occus</t>
+  </si>
+  <si>
+    <t>For recoding pat_symptomatic</t>
+  </si>
+  <si>
+    <t>For recoding patcourse_status</t>
+  </si>
+  <si>
+    <t>For recodingpatcourse_status</t>
+  </si>
+  <si>
+    <t>For recoding patcourse_status_recovered</t>
+  </si>
+  <si>
+    <t>For recoding report_classif</t>
+  </si>
+  <si>
+    <t>For recoding lab_result</t>
+  </si>
+  <si>
+    <t>For recoding pat_symptomatic,comcond_preexist1</t>
+  </si>
+  <si>
+    <t>For recoding  pat_symptomatic,comcond_preexist1</t>
+  </si>
+  <si>
+    <t>For recoding comcond_preexist1, comcond_preexist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three letter ISO code for country </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countries which have sent only confirmed positive cases have the lab_result variable defaulted to "positive". Left blank if not applicable to country </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countries which have sent only confirmed positive cases have the report_classif variable defaulted to "confirmed". Left blank if not applicable to country </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,21 +710,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -718,7 +752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -732,7 +766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -746,7 +780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -760,7 +794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -774,7 +808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -788,7 +822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -802,7 +836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -816,7 +850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -830,7 +864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -844,7 +878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -858,7 +892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -872,7 +906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -886,7 +920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -900,7 +934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -914,7 +948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -934,19 +968,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -971,10 +1005,10 @@
         <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -985,10 +1019,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -999,10 +1033,10 @@
         <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1013,10 +1047,10 @@
         <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1027,10 +1061,10 @@
         <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1041,10 +1075,10 @@
         <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1055,10 +1089,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1069,10 +1103,10 @@
         <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1083,10 +1117,10 @@
         <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1097,10 +1131,10 @@
         <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1111,10 +1145,10 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1125,10 +1159,10 @@
         <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1139,10 +1173,10 @@
         <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1153,10 +1187,10 @@
         <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1167,10 +1201,10 @@
         <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1181,10 +1215,10 @@
         <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1195,10 +1229,10 @@
         <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1209,10 +1243,10 @@
         <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1223,10 +1257,10 @@
         <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1237,10 +1271,10 @@
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1251,10 +1285,10 @@
         <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1265,10 +1299,10 @@
         <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1279,10 +1313,10 @@
         <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1293,10 +1327,10 @@
         <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1307,10 +1341,10 @@
         <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1321,10 +1355,10 @@
         <v>69</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1335,10 +1369,10 @@
         <v>70</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1349,133 +1383,133 @@
         <v>71</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
         <v>73</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
         <v>79</v>
-      </c>
-      <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" t="s">
-        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D35" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1485,21 +1519,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1513,54 +1547,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -1569,96 +1603,96 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C9" t="s">
         <v>103</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
         <v>104</v>
       </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B12" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/dictionary_dictionary.xlsx
+++ b/inst/extdata/dictionary_dictionary.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aljc201/Desktop/covidmonitor/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B068FBC1-583D-FE4F-BD70-F8389C389F09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CBCE32-DDC2-DA48-91C7-170D1B1C2764}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11240" yWindow="460" windowWidth="28800" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="linelist_dictionary" sheetId="1" r:id="rId1"/>
     <sheet name="cleaning_dictionary" sheetId="2" r:id="rId2"/>
     <sheet name="mne_dictionary" sheetId="3" r:id="rId3"/>
+    <sheet name="variable_dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="249">
   <si>
     <t>Sheet</t>
   </si>
@@ -167,9 +168,6 @@
     <t>not_occupation</t>
   </si>
   <si>
-    <t>unknown_sympt</t>
-  </si>
-  <si>
     <t>dead</t>
   </si>
   <si>
@@ -393,16 +391,407 @@
   </si>
   <si>
     <t xml:space="preserve">Countries which have sent only confirmed positive cases have the report_classif variable defaulted to "confirmed". Left blank if not applicable to country </t>
+  </si>
+  <si>
+    <t>patinfo_id</t>
+  </si>
+  <si>
+    <t>report_date</t>
+  </si>
+  <si>
+    <t>patinfo_ageonset</t>
+  </si>
+  <si>
+    <t>patinfo_sex</t>
+  </si>
+  <si>
+    <t>patinfo_resadmin1</t>
+  </si>
+  <si>
+    <t>patinfo_resadmin2</t>
+  </si>
+  <si>
+    <t>report_classif</t>
+  </si>
+  <si>
+    <t>expo_travel</t>
+  </si>
+  <si>
+    <t>expo_travel_country</t>
+  </si>
+  <si>
+    <t>expo_contact_case</t>
+  </si>
+  <si>
+    <t>lab_result</t>
+  </si>
+  <si>
+    <t>lab_datetaken</t>
+  </si>
+  <si>
+    <t>lab_resdate</t>
+  </si>
+  <si>
+    <t>patcourse_status</t>
+  </si>
+  <si>
+    <t>patcourse_dateonset</t>
+  </si>
+  <si>
+    <t>patcourse_datedeath</t>
+  </si>
+  <si>
+    <t>patcourse_datedischarge</t>
+  </si>
+  <si>
+    <t>patcurrent_status</t>
+  </si>
+  <si>
+    <t>pat_symptomatic</t>
+  </si>
+  <si>
+    <t>hcw</t>
+  </si>
+  <si>
+    <t>patcourse_status_recovered</t>
+  </si>
+  <si>
+    <t>report_classif_final</t>
+  </si>
+  <si>
+    <t>comcond_preexist1</t>
+  </si>
+  <si>
+    <t>comcond_preexist</t>
+  </si>
+  <si>
+    <t>cardiovascular_disease</t>
+  </si>
+  <si>
+    <t>pregnancy</t>
+  </si>
+  <si>
+    <t>renal_disease</t>
+  </si>
+  <si>
+    <t>drepanocytosis</t>
+  </si>
+  <si>
+    <t>chronic_pulmonary</t>
+  </si>
+  <si>
+    <t>cancer</t>
+  </si>
+  <si>
+    <t>tuberculosis</t>
+  </si>
+  <si>
+    <t>other_comorb</t>
+  </si>
+  <si>
+    <t>not_specified_comorb</t>
+  </si>
+  <si>
+    <t>comcond_preexsist_count</t>
+  </si>
+  <si>
+    <t>comcond_preexist1_final</t>
+  </si>
+  <si>
+    <t>capital_final</t>
+  </si>
+  <si>
+    <t>Date of case reported and recorded by country of linelist origin</t>
+  </si>
+  <si>
+    <t>Unique identifier assigned by country of linelists origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biological sex of case </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provice of residence of case </t>
+  </si>
+  <si>
+    <t xml:space="preserve">District of residence of case </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaned? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country of travel </t>
+  </si>
+  <si>
+    <t>Did case have history of travel within 14 days</t>
+  </si>
+  <si>
+    <t>Did case have contact with a probable or confirmed case within 14 days</t>
+  </si>
+  <si>
+    <t>Lab result</t>
+  </si>
+  <si>
+    <t>Date sample was taken</t>
+  </si>
+  <si>
+    <t>Date lab result received</t>
+  </si>
+  <si>
+    <t>Date of symptom onset</t>
+  </si>
+  <si>
+    <t>Date of dase death if died</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>Iso code of country of linelists origin</t>
+  </si>
+  <si>
+    <t>Was the case symptomatic</t>
+  </si>
+  <si>
+    <t>date in format yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>age in years</t>
+  </si>
+  <si>
+    <t>M or F</t>
+  </si>
+  <si>
+    <t>Epi classification</t>
+  </si>
+  <si>
+    <t>suspected, probable, confirmed or not a case</t>
+  </si>
+  <si>
+    <t>As inputed by country of linelists origin</t>
+  </si>
+  <si>
+    <t>positive, negative or inconclusive</t>
+  </si>
+  <si>
+    <t>alive, dead</t>
+  </si>
+  <si>
+    <t>yes or no</t>
+  </si>
+  <si>
+    <t>As inputed by country of linelists origin, unless cleaned as description</t>
+  </si>
+  <si>
+    <t>Current status of case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Used to fill in patcourse_staus variable if this was missing    </t>
+  </si>
+  <si>
+    <t>Date of discharge</t>
+  </si>
+  <si>
+    <t>Outcome of case</t>
+  </si>
+  <si>
+    <t>Age at onset of case in years</t>
+  </si>
+  <si>
+    <t>Ages in months and days were cleaned in cleaning function to be in units of year. Ages &gt;120 or &lt;0  were recoded to NA</t>
+  </si>
+  <si>
+    <t>Occupation of case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaned from occupation variable </t>
+  </si>
+  <si>
+    <t>Was case a Healthcare worker</t>
+  </si>
+  <si>
+    <t>patsympt_*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaned base on other symptom variables (patsympt_*) as well as using information entered by country of linelists origin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final outcome </t>
+  </si>
+  <si>
+    <t>alive, recovered, dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Epi classification </t>
+  </si>
+  <si>
+    <t>including if case was identified as "recovered"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Some countries used a date of outcome column - nonspecific to dead or discharged this was handledd during cleaning. In this case if outcome varibale was "dead", date of death was populated</t>
+  </si>
+  <si>
+    <t>Some countries used a date of outcome column - nonspecific to dead or discharged this was handledd during cleaning. In this case if outcome varibale was "alive", date of discharge was populated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichtomised to "alive" or "dead" in cleaning. Also see patcourse_status_recovered </t>
+  </si>
+  <si>
+    <t>Also see report_classif_final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did case have preexsisting comorbidity </t>
+  </si>
+  <si>
+    <t>yes, no, Not indicated, Not given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desciption of preexsisting comorbidity </t>
+  </si>
+  <si>
+    <t>As inputed by country of linelists origin,</t>
+  </si>
+  <si>
+    <t>As inputed by country of linelists origin. Cleaning only to give uniform inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes inputed in comcond_preexist description variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asthma inputed in comcond_preexist description variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertension inputed in comcond_preexist description variable  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obesity inputed in comcond_preexist description variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardivascular disease inputed in comcond_preexist description variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pregancy inputed in comcond_preexist description variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">renal disease inputed in comcond_preexist description variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">drepanocytosis inputed in comcond_preexist description variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chornic oulmonary disease inputed in comcond_preexist description variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancer inputed in comcond_preexist description variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuberculosis inputed in comcond_preexist description variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">other comorbidity inputed in comcond_preexist description variable </t>
+  </si>
+  <si>
+    <t>Cleaning based on word lists relating to this comorbidity</t>
+  </si>
+  <si>
+    <t>not specifed comorbidity if comcond_preexist1 was yes without further description in comcond_preexist</t>
+  </si>
+  <si>
+    <t>Number of identified comorbidities present (comorbidities identifed as above)</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>yes, no, not given</t>
+  </si>
+  <si>
+    <t>If comorbidity was identified in description cleaning steps this variable is populated with "yes", if no comorbidity was identified from the description variable populate with "no". If missing description variable and old comcond_preexist1 populate with "not given". NB. If comcond_preexist1 was "yes" but no comorbidity was identified (ie description contained strings that were non- comorbidities) this variable will be populated with "no".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full name of  country of linelists origin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">full country name </t>
+  </si>
+  <si>
+    <t>As matched to country iso code in capital city identification clean</t>
+  </si>
+  <si>
+    <t>Was resadmin1 (province) identified as a capital city</t>
+  </si>
+  <si>
+    <t>Matched if resadmin contained capital city as soecified in  capital cleaning sheet</t>
+  </si>
+  <si>
+    <t>If missing values in thi variable and lab_result was "positive" variable is populated with "confirmed". In addition If country linelist was identifed in confirmed cleaning sheet then missing values in this variable for identifed contry is populated with "confirmed"</t>
+  </si>
+  <si>
+    <t>If country linelist was identifed previously in confirmed cleaning sheet then missing values in this variable for identifed contry is populated with "positive"</t>
+  </si>
+  <si>
+    <t>In ConfirmedCases File</t>
+  </si>
+  <si>
+    <t>yes: variable name "sex"</t>
+  </si>
+  <si>
+    <t>yes: variable name "age"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes: variable name "disctrict" </t>
+  </si>
+  <si>
+    <t>yes: variable name "province"</t>
+  </si>
+  <si>
+    <t>yes: variable name "epi_classification"</t>
+  </si>
+  <si>
+    <t>yes: variable name "outcome"</t>
+  </si>
+  <si>
+    <t>yes: variable name date_of_death</t>
+  </si>
+  <si>
+    <t>yes: variable name country_iso3</t>
+  </si>
+  <si>
+    <t>yes: variable namedate_of_discharge</t>
+  </si>
+  <si>
+    <t>yes: variable name symptomatic</t>
+  </si>
+  <si>
+    <t>yes: variable name healthcare_worker</t>
+  </si>
+  <si>
+    <t>yes: variable name finalepiclassification</t>
+  </si>
+  <si>
+    <t>yes: variable name finaloutcome</t>
+  </si>
+  <si>
+    <t>yes: variable name preexsiting_comorbidity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -428,9 +817,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1005,7 +1396,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1019,7 +1410,7 @@
         <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1030,10 +1421,10 @@
         <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1044,10 +1435,10 @@
         <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1058,10 +1449,10 @@
         <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1072,10 +1463,10 @@
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1086,10 +1477,10 @@
         <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1100,10 +1491,10 @@
         <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1114,10 +1505,10 @@
         <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1128,10 +1519,10 @@
         <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1142,10 +1533,10 @@
         <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1156,10 +1547,10 @@
         <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1170,10 +1561,10 @@
         <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1184,10 +1575,10 @@
         <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1198,10 +1589,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1212,10 +1603,10 @@
         <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1226,10 +1617,10 @@
         <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1240,10 +1631,10 @@
         <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1254,10 +1645,10 @@
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1268,10 +1659,10 @@
         <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1282,10 +1673,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1296,10 +1687,10 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1310,10 +1701,10 @@
         <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1324,10 +1715,10 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1338,10 +1729,10 @@
         <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1352,10 +1743,10 @@
         <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1366,10 +1757,10 @@
         <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1380,21 +1771,21 @@
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
         <v>72</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -1402,86 +1793,86 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
       <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
         <v>72</v>
       </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
         <v>78</v>
       </c>
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
         <v>78</v>
-      </c>
-      <c r="B34" t="s">
-        <v>79</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
         <v>78</v>
       </c>
-      <c r="B35" t="s">
-        <v>79</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
         <v>78</v>
       </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1489,13 +1880,13 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1503,13 +1894,13 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +1914,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1549,52 +1940,52 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
         <v>88</v>
       </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
         <v>88</v>
       </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
         <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -1605,94 +1996,1071 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
         <v>88</v>
       </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
         <v>88</v>
       </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
         <v>101</v>
       </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
         <v>101</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>102</v>
       </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
         <v>101</v>
       </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
         <v>101</v>
       </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
         <v>107</v>
       </c>
-      <c r="B12" t="s">
-        <v>108</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA50BFC-BB4A-B447-841F-114609491EFA}">
+  <dimension ref="A1:AU44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
